--- a/data_analysis/surrogate/surrogate_mannwhiteyu.xlsx
+++ b/data_analysis/surrogate/surrogate_mannwhiteyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_thesis\brain_connectivity_epilepsy\data_analysis\surrogate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53244EE9-D22A-4ACA-A1FF-5A519D748713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1368C-DBD5-484A-9E36-5A29A85F6D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="3450" windowWidth="15045" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2415" windowWidth="15045" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surrogate_mannwhiteyu" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_analysis/surrogate/surrogate_mannwhiteyu.xlsx
+++ b/data_analysis/surrogate/surrogate_mannwhiteyu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code_thesis\brain_connectivity_epilepsy\data_analysis\surrogate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1368C-DBD5-484A-9E36-5A29A85F6D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BDC68A-6426-4C6A-B725-7CDA31CB512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2415" windowWidth="15045" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surrogate_mannwhiteyu" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,19 +1103,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>8.9042612741706495E-2</v>
+        <v>9.9609810037299198E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>0.232657043923644</v>
+        <v>0.18898826832761301</v>
       </c>
       <c r="E2" s="4">
-        <v>0.41647295443355598</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="F2" s="4">
-        <v>0.39134131331508498</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="G2" s="4">
-        <v>0.454787384031553</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1125,19 +1126,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>6.9908346943015107E-2</v>
+        <v>0.13606478265190999</v>
       </c>
       <c r="D3" s="5">
-        <v>0.296178130488366</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="E3" s="5">
-        <v>0.27414496773372898</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="F3" s="5">
-        <v>1.6773559846444699E-2</v>
+        <v>1.14926400358214E-2</v>
       </c>
       <c r="G3" s="5">
-        <v>2.88267271845081E-2</v>
+        <v>2.4745621064602801E-2</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>39</v>
@@ -1151,19 +1152,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>3.3369789895744899E-2</v>
+        <v>6.6765902113606904E-2</v>
       </c>
       <c r="D4" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="E4" s="6">
-        <v>0.35450919617979798</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="F4" s="6">
-        <v>8.3928254562970594E-2</v>
+        <v>6.2853394230935597E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>5.0635389811689697E-2</v>
+        <v>4.5905083238559199E-2</v>
       </c>
       <c r="I4" s="8">
         <v>0.05</v>
@@ -1177,19 +1178,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>0.36665539631668598</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="D5" s="4">
-        <v>0.40385751915254098</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="E5" s="4">
-        <v>0.46767129420681802</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="F5" s="4">
-        <v>0.40385751915254098</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="G5" s="4">
-        <v>0.42917502469374202</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,19 +1201,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>0.22285860568924501</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="D6" s="4">
-        <v>0.131458279791073</v>
+        <v>9.9609810037299198E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>0.40385751915254098</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="F6" s="4">
-        <v>0.25295344246198898</v>
+        <v>0.25299651575947202</v>
       </c>
       <c r="G6" s="4">
-        <v>0.30749104602284499</v>
+        <v>0.34949651010751498</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1223,19 +1224,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="4">
-        <v>0.41647295443355598</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="D7" s="4">
-        <v>4.12753925138983E-2</v>
+        <v>2.65934273781291E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.10577327073338499</v>
+        <v>6.6765902113606904E-2</v>
       </c>
       <c r="F7" s="4">
-        <v>0.15334920664201801</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="G7" s="4">
-        <v>8.9042612741706495E-2</v>
+        <v>7.0864259897808105E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1246,19 +1247,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>0.232657043923644</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="D8" s="4">
-        <v>0.232657043923644</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="E8" s="4">
-        <v>0.232657043923644</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="F8" s="4">
-        <v>0.27414496773372898</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="G8" s="4">
-        <v>0.242690382984177</v>
+        <v>0.32687852888302499</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1269,19 +1270,19 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>0.44195086601021999</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="D9" s="4">
-        <v>0.49352744993252501</v>
+        <v>0.45689058536119798</v>
       </c>
       <c r="E9" s="4">
-        <v>0.49352744993252501</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="F9" s="4">
-        <v>0.33066606728022602</v>
+        <v>0.42032048369946701</v>
       </c>
       <c r="G9" s="4">
-        <v>0.37893662429334701</v>
+        <v>0.43245030856800498</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,19 +1293,19 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>0.131458279791073</v>
+        <v>0.13606478265190999</v>
       </c>
       <c r="D10" s="5">
-        <v>0.36665539631668598</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="E10" s="5">
-        <v>0.10577327073338499</v>
+        <v>9.9609810037299198E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>5.4276414048954804E-3</v>
+        <v>8.9790125819524894E-3</v>
       </c>
       <c r="G10" s="5">
-        <v>1.8173525644872499E-2</v>
+        <v>1.9836459952154901E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1315,19 +1316,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="5">
-        <v>0.34250918087247301</v>
+        <v>0.45689058536119798</v>
       </c>
       <c r="D11" s="5">
-        <v>0.34250918087247301</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="E11" s="5">
-        <v>0.39134131331508498</v>
+        <v>0.48149507391474899</v>
       </c>
       <c r="F11" s="5">
-        <v>0.34250918087247301</v>
+        <v>0.27318083322728098</v>
       </c>
       <c r="G11" s="5">
-        <v>0.48058916300798499</v>
+        <v>0.39629745083198498</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,19 +1339,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>0.46767129420681802</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="D12" s="5">
-        <v>0.30749104602284499</v>
+        <v>0.243206820669577</v>
       </c>
       <c r="E12" s="5">
-        <v>0.44195086601021999</v>
+        <v>0.37266193902088002</v>
       </c>
       <c r="F12" s="5">
-        <v>0.28506005676099999</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="G12" s="5">
-        <v>0.39134131331508498</v>
+        <v>0.36101549765005297</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,19 +1362,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>0.22285860568924501</v>
+        <v>0.18898826832761301</v>
       </c>
       <c r="D13" s="5">
-        <v>0.138501997717032</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="E13" s="5">
-        <v>9.4385400787066503E-2</v>
+        <v>9.4303275693899402E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>9.9960947754301102E-2</v>
+        <v>0.13606478265190999</v>
       </c>
       <c r="G13" s="5">
-        <v>9.9960947754301102E-2</v>
+        <v>0.129426558070771</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,19 +1385,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>7.8132659202337501E-3</v>
+        <v>4.8969348693433399E-3</v>
       </c>
       <c r="D14" s="5">
-        <v>0.35450919617979798</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="E14" s="5">
-        <v>0.131458279791073</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="F14" s="5">
-        <v>7.9037711782903003E-2</v>
+        <v>7.9637260826425596E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>1.54668893589595E-2</v>
+        <v>1.14926400358214E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,19 +1408,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="6">
-        <v>0.30749104602284499</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="D15" s="6">
-        <v>0.36665539631668598</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="E15" s="6">
-        <v>0.213299638795481</v>
+        <v>0.17271272448448999</v>
       </c>
       <c r="F15" s="6">
-        <v>0.30749104602284499</v>
+        <v>0.243206820669577</v>
       </c>
       <c r="G15" s="6">
-        <v>0.28506005676099999</v>
+        <v>0.215106421009226</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1430,19 +1431,19 @@
         <v>20</v>
       </c>
       <c r="C16" s="6">
-        <v>8.9042612741706495E-2</v>
+        <v>0.17271272448448999</v>
       </c>
       <c r="D16" s="6">
-        <v>0.213299638795481</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="E16" s="6">
-        <v>0.31899010409039202</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="F16" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="G16" s="6">
-        <v>0.35450919617979798</v>
+        <v>0.44464413780060502</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,19 +1454,19 @@
         <v>21</v>
       </c>
       <c r="C17" s="6">
-        <v>0.19491535614368999</v>
+        <v>0.13606478265190999</v>
       </c>
       <c r="D17" s="6">
-        <v>2.88267271845081E-2</v>
+        <v>1.7044930494622499E-2</v>
       </c>
       <c r="E17" s="6">
-        <v>8.9042612741706495E-2</v>
+        <v>5.5566392347769403E-2</v>
       </c>
       <c r="F17" s="6">
-        <v>0.169214401110834</v>
+        <v>0.16492055867722299</v>
       </c>
       <c r="G17" s="6">
-        <v>0.131458279791073</v>
+        <v>0.105131305319667</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,19 +1477,19 @@
         <v>22</v>
       </c>
       <c r="C18" s="6">
-        <v>0.16115444224223799</v>
+        <v>0.197469036968352</v>
       </c>
       <c r="D18" s="6">
-        <v>0.30749104602284499</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="E18" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.36101549765005297</v>
       </c>
       <c r="F18" s="6">
-        <v>0.203984104196164</v>
+        <v>0.26298969548700701</v>
       </c>
       <c r="G18" s="6">
-        <v>0.30749104602284499</v>
+        <v>0.39629745083198498</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,19 +1500,19 @@
         <v>23</v>
       </c>
       <c r="C19" s="6">
-        <v>0.213299638795481</v>
+        <v>0.180735649903082</v>
       </c>
       <c r="D19" s="6">
-        <v>0.27414496773372898</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="E19" s="6">
-        <v>0.28506005676099999</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="F19" s="6">
-        <v>0.46767129420681802</v>
+        <v>0.45689058536119798</v>
       </c>
       <c r="G19" s="6">
-        <v>0.40385751915254098</v>
+        <v>0.34949651010751498</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,19 +1523,19 @@
         <v>24</v>
       </c>
       <c r="C20" s="4">
-        <v>0.30749104602284499</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25295344246198898</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="E20" s="4">
-        <v>0.213299638795481</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="F20" s="4">
-        <v>0.213299638795481</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="G20" s="4">
-        <v>0.18609614749606901</v>
+        <v>0.27318083322728098</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,19 +1546,19 @@
         <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>0.15334920664201801</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="D21" s="4">
-        <v>0.242690382984177</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="E21" s="4">
-        <v>0.111826048481327</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="F21" s="4">
-        <v>6.1612901254583803E-2</v>
+        <v>0.12301617454913299</v>
       </c>
       <c r="G21" s="4">
-        <v>6.9908346943015107E-2</v>
+        <v>0.13606478265190999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1568,19 +1569,19 @@
         <v>26</v>
       </c>
       <c r="C22" s="4">
-        <v>0.19491535614368999</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="D22" s="4">
-        <v>0.44195086601021999</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="E22" s="4">
-        <v>0.31899010409039202</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="F22" s="4">
-        <v>0.169214401110834</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="G22" s="4">
-        <v>0.26344043430946301</v>
+        <v>0.224257497996283</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,19 +1592,19 @@
         <v>27</v>
       </c>
       <c r="C23" s="4">
-        <v>0.16115444224223799</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="D23" s="4">
-        <v>0.454787384031553</v>
+        <v>0.33811447783202597</v>
       </c>
       <c r="E23" s="4">
-        <v>0.10577327073338499</v>
+        <v>7.9637260826425596E-2</v>
       </c>
       <c r="F23" s="4">
-        <v>0.213299638795481</v>
+        <v>0.150030455582563</v>
       </c>
       <c r="G23" s="4">
-        <v>0.203984104196164</v>
+        <v>0.14293237185691701</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,19 +1615,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="4">
-        <v>0.10577327073338499</v>
+        <v>0.129426558070771</v>
       </c>
       <c r="D24" s="4">
-        <v>0.169214401110834</v>
+        <v>0.233625639042956</v>
       </c>
       <c r="E24" s="4">
-        <v>0.14579859843964099</v>
+        <v>0.215106421009226</v>
       </c>
       <c r="F24" s="4">
-        <v>0.169214401110834</v>
+        <v>0.25299651575947202</v>
       </c>
       <c r="G24" s="4">
-        <v>0.15334920664201801</v>
+        <v>0.215106421009226</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,19 +1638,19 @@
         <v>29</v>
       </c>
       <c r="C25" s="5">
-        <v>0.31899010409039202</v>
+        <v>0.32687852888302499</v>
       </c>
       <c r="D25" s="5">
-        <v>0.46767129420681802</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="E25" s="5">
-        <v>0.31899010409039202</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="F25" s="5">
-        <v>0.25295344246198898</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="G25" s="5">
-        <v>0.28506005676099999</v>
+        <v>0.34949651010751498</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,19 +1661,19 @@
         <v>30</v>
       </c>
       <c r="C26" s="5">
-        <v>4.12753925138983E-2</v>
+        <v>4.5905083238559199E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>0.17752863738060101</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="E26" s="5">
-        <v>0.46767129420681802</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="F26" s="5">
-        <v>0.203984104196164</v>
+        <v>0.16492055867722299</v>
       </c>
       <c r="G26" s="5">
-        <v>0.454787384031553</v>
+        <v>0.33811447783202597</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,19 +1684,19 @@
         <v>31</v>
       </c>
       <c r="C27" s="5">
-        <v>0.213299638795481</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="D27" s="5">
-        <v>0.232657043923644</v>
+        <v>0.20617592794401399</v>
       </c>
       <c r="E27" s="5">
-        <v>0.25295344246198898</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="F27" s="5">
-        <v>0.131458279791073</v>
+        <v>0.17271272448448999</v>
       </c>
       <c r="G27" s="5">
-        <v>0.25295344246198898</v>
+        <v>0.33811447783202597</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,19 +1707,19 @@
         <v>32</v>
       </c>
       <c r="C28" s="5">
-        <v>0.25295344246198898</v>
+        <v>0.315797396529232</v>
       </c>
       <c r="D28" s="5">
-        <v>5.7764081379316802E-2</v>
+        <v>4.0249831947018803E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>0.27414496773372898</v>
+        <v>0.25299651575947202</v>
       </c>
       <c r="F28" s="5">
-        <v>0.41647295443355598</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="G28" s="5">
-        <v>0.46767129420681802</v>
+        <v>0.49382972374237899</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,19 +1730,19 @@
         <v>33</v>
       </c>
       <c r="C29" s="5">
-        <v>9.9960947754301102E-2</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="D29" s="5">
-        <v>0.17752863738060101</v>
+        <v>0.29413242475453499</v>
       </c>
       <c r="E29" s="5">
-        <v>9.9960947754301102E-2</v>
+        <v>0.18898826832761301</v>
       </c>
       <c r="F29" s="5">
-        <v>0.27414496773372898</v>
+        <v>0.37266193902088002</v>
       </c>
       <c r="G29" s="5">
-        <v>0.31899010409039202</v>
+        <v>0.42032048369946701</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,19 +1753,19 @@
         <v>34</v>
       </c>
       <c r="C30" s="6">
-        <v>0.36665539631668598</v>
+        <v>0.38442598250750998</v>
       </c>
       <c r="D30" s="6">
-        <v>0.39134131331508498</v>
+        <v>0.469178115215244</v>
       </c>
       <c r="E30" s="6">
-        <v>0.35450919617979798</v>
+        <v>0.40826586735999998</v>
       </c>
       <c r="F30" s="6">
-        <v>0.37893662429334701</v>
+        <v>0.43245030856800498</v>
       </c>
       <c r="G30" s="6">
-        <v>0.40385751915254098</v>
+        <v>0.44464413780060502</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,19 +1776,19 @@
         <v>35</v>
       </c>
       <c r="C31" s="6">
-        <v>0.42917502469374202</v>
+        <v>0.49382972374237899</v>
       </c>
       <c r="D31" s="6">
-        <v>0.37893662429334701</v>
+        <v>0.39629745083198498</v>
       </c>
       <c r="E31" s="6">
-        <v>0.19491535614368999</v>
+        <v>0.243206820669577</v>
       </c>
       <c r="F31" s="6">
-        <v>9.9960947754301102E-2</v>
+        <v>0.14293237185691701</v>
       </c>
       <c r="G31" s="6">
-        <v>0.11812259538895099</v>
+        <v>0.14293237185691701</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,19 +1799,19 @@
         <v>36</v>
       </c>
       <c r="C32" s="6">
-        <v>0.169214401110834</v>
+        <v>0.105131305319667</v>
       </c>
       <c r="D32" s="6">
-        <v>0.49352744993252501</v>
+        <v>0.42032048369946701</v>
       </c>
       <c r="E32" s="6">
-        <v>0.25295344246198898</v>
+        <v>0.34949651010751498</v>
       </c>
       <c r="F32" s="6">
-        <v>0.242690382984177</v>
+        <v>0.304879399612212</v>
       </c>
       <c r="G32" s="6">
-        <v>0.36665539631668598</v>
+        <v>0.44464413780060502</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,19 +1822,19 @@
         <v>37</v>
       </c>
       <c r="C33" s="6">
-        <v>4.42256933362715E-2</v>
+        <v>7.5153189852274802E-2</v>
       </c>
       <c r="D33" s="6">
-        <v>7.4366111113803701E-2</v>
+        <v>4.5905083238559199E-2</v>
       </c>
       <c r="E33" s="6">
-        <v>4.12753925138983E-2</v>
+        <v>3.2840284462240903E-2</v>
       </c>
       <c r="F33" s="6">
-        <v>0.17752863738060101</v>
+        <v>0.15735975335751901</v>
       </c>
       <c r="G33" s="6">
-        <v>0.213299638795481</v>
+        <v>0.16492055867722299</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,19 +1845,19 @@
         <v>38</v>
       </c>
       <c r="C34" s="6">
-        <v>0.454787384031553</v>
+        <v>0.44464413780060502</v>
       </c>
       <c r="D34" s="6">
-        <v>0.40385751915254098</v>
+        <v>0.43245030856800498</v>
       </c>
       <c r="E34" s="6">
-        <v>0.296178130488366</v>
+        <v>0.32687852888302499</v>
       </c>
       <c r="F34" s="6">
-        <v>0.14579859843964099</v>
+        <v>0.17271272448448999</v>
       </c>
       <c r="G34" s="6">
-        <v>0.22285860568924501</v>
+        <v>0.233625639042956</v>
       </c>
     </row>
   </sheetData>
